--- a/58. Bolsa_da_Cafe.xlsx
+++ b/58. Bolsa_da_Cafe.xlsx
@@ -8,14 +8,49 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0463150E-C89D-408A-AE40-93F314FBBEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE75670C-9E2B-4241-9E5B-F6FADDD7736F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E15EF1FC-516A-49D5-AA89-0D829D4BD0A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E15EF1FC-516A-49D5-AA89-0D829D4BD0A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="problem_statement" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$5:$D$5</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$C$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$E$13:$E$15</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$C$9</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$G$13:$G$15</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Bolsa da Café</t>
   </si>
@@ -61,6 +96,48 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Variable:</t>
+  </si>
+  <si>
+    <t>No. of 20lb bags</t>
+  </si>
+  <si>
+    <t>No. of grinded beans</t>
+  </si>
+  <si>
+    <t>Selling Price:</t>
+  </si>
+  <si>
+    <t>Objective (Max):</t>
+  </si>
+  <si>
+    <t>Profit:</t>
+  </si>
+  <si>
+    <t>Constraint:</t>
+  </si>
+  <si>
+    <t>LHS</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>No. of 20 lb bags must be an integer</t>
+  </si>
+  <si>
+    <t>Result:</t>
+  </si>
+  <si>
+    <t>The café is recommended to produce 44 bags of 20 lb bags and 20 bags of grinded beans for a maximum profit of 3770 dollars.</t>
   </si>
 </sst>
 </file>
@@ -84,12 +161,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -129,11 +218,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -189,14 +291,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -555,21 +653,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA51D0C-A4CF-488F-A971-05312FE6BBCD}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6">
+        <f>SUMPRODUCT(C5:D5,C6:D6)</f>
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="4">
+        <f>SUMPRODUCT($C$5:$D$5,C13:D13)</f>
+        <v>1330</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E15" si="0">SUMPRODUCT($C$5:$D$5,C14:D14)</f>
+        <v>800</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -579,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF96045-CAC7-4C17-A8EA-4A9FD66ED1D4}">
   <dimension ref="B9:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,58 +877,58 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>30</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>0.5</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>2000</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>18</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>0.4</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>800</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>0.1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>200</v>
       </c>
     </row>
